--- a/Design/BugReports.xlsx
+++ b/Design/BugReports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\작업공간\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seobok\Desktop\unity\TowerDefence\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAE8E34-1D10-42B1-BC32-7DFBF68D9E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12A8610-EF87-462C-891B-2545A2639EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NullPointer 버그 발생</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,11 +58,21 @@
     <t>*해결 완료된 버그는 취소선으로 그어 표시해주세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Coroutine couldn't be started because the the game object 'Slime(Clone)' is inactive!</t>
+  </si>
+  <si>
+    <t>몬스터에 coroutine이 걸린 상태에서 집에 도착하면 inactive상태라서 coroutine에 오류가 생기는 듯 함 (게임에서 질 때 생기는 오류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,25 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,7 +484,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -502,6 +493,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -785,14 +795,15 @@
   <dimension ref="B1:J258"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="53.69921875" style="9" customWidth="1"/>
-    <col min="3" max="4" width="16.796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="53.69921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="69.796875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -801,25 +812,25 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:10" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="7"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -831,1293 +842,1299 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="13"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="17"/>
-      <c r="F5" s="24" t="s">
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="30">
+        <v>44840</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="14"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="18"/>
-      <c r="F6" s="27" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12"/>
+      <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="14"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="18"/>
-      <c r="F7" s="28" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="14"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="14"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="14"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="14"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="14"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="14"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="14"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="14"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="14"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="14"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="14"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="14"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="14"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="14"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="14"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="14"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="14"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="14"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="14"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="14"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="14"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="14"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="14"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="18"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="14"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="18"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="14"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="14"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="18"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="14"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="14"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="14"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="14"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="14"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="14"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="18"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="14"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="14"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="18"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="14"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="18"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="14"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="18"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="14"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="18"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="14"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="14"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="14"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="14"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="14"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="18"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="14"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="18"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="14"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="18"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B52" s="14"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="18"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="14"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="14"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="18"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="14"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="18"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="14"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="18"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="14"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="18"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="14"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="18"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="14"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="18"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="14"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="18"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" s="14"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="18"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="14"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="18"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="14"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="18"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B64" s="14"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="18"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="12"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="14"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="18"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B66" s="14"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="18"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="14"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="18"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="12"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B68" s="14"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="18"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="14"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="18"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70" s="14"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="18"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="12"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B71" s="14"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="18"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72" s="14"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="18"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="12"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B73" s="14"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="18"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="12"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B74" s="14"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="18"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="12"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75" s="14"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="18"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="12"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B76" s="14"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="18"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B77" s="14"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="18"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="12"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B78" s="14"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="18"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B79" s="14"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="18"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="12"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B80" s="14"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="18"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B81" s="14"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="18"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B82" s="14"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="18"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="12"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B83" s="14"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="18"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="12"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B84" s="14"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="18"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="12"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B85" s="14"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="18"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="12"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B86" s="14"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="18"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="12"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B87" s="14"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="18"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="12"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B88" s="14"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="18"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="12"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B89" s="14"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="18"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="12"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B90" s="14"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="18"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B91" s="14"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="18"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="12"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B92" s="14"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="18"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="12"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B93" s="14"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="18"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="12"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B94" s="14"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="18"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="12"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B95" s="14"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="18"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="12"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B96" s="14"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="18"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="12"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B97" s="14"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="18"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="12"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B98" s="14"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="18"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="12"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B99" s="14"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="18"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="12"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B100" s="14"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="18"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B101" s="14"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="18"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="12"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B102" s="14"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="18"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="12"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B103" s="14"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="18"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="12"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B104" s="14"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="18"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="12"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B105" s="14"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="18"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="12"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B106" s="14"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="18"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="12"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B107" s="14"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="18"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="12"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B108" s="14"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="18"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="12"/>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B109" s="14"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="18"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="12"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B110" s="14"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="18"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="12"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B111" s="14"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="18"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="12"/>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B112" s="14"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="18"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="12"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B113" s="14"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="18"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="12"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B114" s="14"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="18"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="12"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B115" s="14"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="18"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="12"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B116" s="14"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="18"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="12"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B117" s="14"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="18"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="12"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B118" s="14"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="18"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="12"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B119" s="14"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="18"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="12"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B120" s="14"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="18"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="12"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B121" s="14"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="18"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="12"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B122" s="14"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="18"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="12"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B123" s="14"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="18"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="12"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B124" s="14"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="18"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="12"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B125" s="14"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="18"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="12"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B126" s="14"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="18"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="12"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B127" s="14"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="18"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="12"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B128" s="14"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="18"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="12"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B129" s="14"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="18"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="12"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B130" s="14"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="18"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="12"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B131" s="14"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="18"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="12"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B132" s="14"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="18"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="12"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B133" s="14"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="18"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="12"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B134" s="14"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="18"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="12"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B135" s="14"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="18"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="12"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B136" s="14"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="18"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="12"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B137" s="14"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="18"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="12"/>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B138" s="14"/>
-      <c r="C138" s="22"/>
-      <c r="D138" s="18"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="12"/>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B139" s="14"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="18"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="12"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B140" s="14"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="18"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="12"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B141" s="14"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="18"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="12"/>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B142" s="14"/>
-      <c r="C142" s="22"/>
-      <c r="D142" s="18"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="12"/>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B143" s="14"/>
-      <c r="C143" s="22"/>
-      <c r="D143" s="18"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="12"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B144" s="14"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="18"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="12"/>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B145" s="14"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="18"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="12"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B146" s="14"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="18"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="12"/>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B147" s="14"/>
-      <c r="C147" s="22"/>
-      <c r="D147" s="18"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="12"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B148" s="14"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="18"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="12"/>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B149" s="14"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="18"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="12"/>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B150" s="14"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="18"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="12"/>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B151" s="14"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="18"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="12"/>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B152" s="14"/>
-      <c r="C152" s="22"/>
-      <c r="D152" s="18"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="12"/>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B153" s="14"/>
-      <c r="C153" s="22"/>
-      <c r="D153" s="18"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="12"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B154" s="14"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="18"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="12"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B155" s="14"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="18"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="12"/>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B156" s="14"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="18"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="12"/>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B157" s="14"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="18"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="12"/>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B158" s="14"/>
-      <c r="C158" s="22"/>
-      <c r="D158" s="18"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="12"/>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B159" s="14"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="18"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="12"/>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B160" s="14"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="18"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="12"/>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B161" s="14"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="18"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="12"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B162" s="14"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="18"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="12"/>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B163" s="14"/>
-      <c r="C163" s="22"/>
-      <c r="D163" s="18"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="12"/>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B164" s="14"/>
-      <c r="C164" s="22"/>
-      <c r="D164" s="18"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="12"/>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B165" s="14"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="18"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="12"/>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B166" s="14"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="18"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="12"/>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B167" s="14"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="18"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="12"/>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B168" s="14"/>
-      <c r="C168" s="22"/>
-      <c r="D168" s="18"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="12"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B169" s="14"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="18"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="12"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B170" s="14"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="18"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="12"/>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B171" s="14"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="18"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="12"/>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B172" s="14"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="18"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="12"/>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B173" s="14"/>
-      <c r="C173" s="22"/>
-      <c r="D173" s="18"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="12"/>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B174" s="14"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="18"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="12"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B175" s="14"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="18"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="12"/>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B176" s="14"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="18"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="12"/>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B177" s="14"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="18"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="12"/>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B178" s="14"/>
-      <c r="C178" s="22"/>
-      <c r="D178" s="18"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="12"/>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B179" s="14"/>
-      <c r="C179" s="22"/>
-      <c r="D179" s="18"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="12"/>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B180" s="14"/>
-      <c r="C180" s="22"/>
-      <c r="D180" s="18"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="12"/>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B181" s="14"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="18"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="12"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B182" s="14"/>
-      <c r="C182" s="22"/>
-      <c r="D182" s="18"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="12"/>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B183" s="14"/>
-      <c r="C183" s="22"/>
-      <c r="D183" s="18"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="12"/>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B184" s="14"/>
-      <c r="C184" s="22"/>
-      <c r="D184" s="18"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="12"/>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B185" s="14"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="18"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="12"/>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B186" s="14"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="18"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="12"/>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B187" s="14"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="18"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="12"/>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B188" s="14"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="18"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="12"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B189" s="14"/>
-      <c r="C189" s="22"/>
-      <c r="D189" s="18"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="12"/>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B190" s="14"/>
-      <c r="C190" s="22"/>
-      <c r="D190" s="18"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="12"/>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B191" s="14"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="18"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="12"/>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B192" s="14"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="18"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="12"/>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B193" s="14"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="18"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="12"/>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B194" s="14"/>
-      <c r="C194" s="22"/>
-      <c r="D194" s="18"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="12"/>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B195" s="14"/>
-      <c r="C195" s="22"/>
-      <c r="D195" s="18"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="12"/>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B196" s="14"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="18"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="12"/>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B197" s="14"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="18"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="12"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B198" s="14"/>
-      <c r="C198" s="22"/>
-      <c r="D198" s="18"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="12"/>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B199" s="14"/>
-      <c r="C199" s="22"/>
-      <c r="D199" s="18"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="12"/>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B200" s="14"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="18"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="12"/>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B201" s="14"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="18"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="12"/>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B202" s="14"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="18"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="12"/>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B203" s="14"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="18"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="12"/>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B204" s="14"/>
-      <c r="C204" s="22"/>
-      <c r="D204" s="18"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="12"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B205" s="14"/>
-      <c r="C205" s="22"/>
-      <c r="D205" s="18"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="12"/>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B206" s="14"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="18"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="12"/>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B207" s="14"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="18"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="12"/>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B208" s="14"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="18"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="12"/>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B209" s="14"/>
-      <c r="C209" s="22"/>
-      <c r="D209" s="18"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="12"/>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B210" s="14"/>
-      <c r="C210" s="22"/>
-      <c r="D210" s="18"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="12"/>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B211" s="14"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="18"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="12"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B212" s="14"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="18"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="12"/>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B213" s="14"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="18"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="12"/>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B214" s="14"/>
-      <c r="C214" s="22"/>
-      <c r="D214" s="18"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="12"/>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B215" s="14"/>
-      <c r="C215" s="22"/>
-      <c r="D215" s="18"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="12"/>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B216" s="14"/>
-      <c r="C216" s="22"/>
-      <c r="D216" s="18"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="12"/>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B217" s="14"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="18"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="12"/>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B218" s="14"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="18"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="12"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B219" s="14"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="18"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="12"/>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B220" s="14"/>
-      <c r="C220" s="22"/>
-      <c r="D220" s="18"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="12"/>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B221" s="14"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="18"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="12"/>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B222" s="14"/>
-      <c r="C222" s="22"/>
-      <c r="D222" s="18"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="15"/>
+      <c r="D222" s="12"/>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B223" s="14"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="18"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="12"/>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B224" s="14"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="18"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="15"/>
+      <c r="D224" s="12"/>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B225" s="14"/>
-      <c r="C225" s="22"/>
-      <c r="D225" s="18"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="15"/>
+      <c r="D225" s="12"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B226" s="14"/>
-      <c r="C226" s="22"/>
-      <c r="D226" s="18"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="15"/>
+      <c r="D226" s="12"/>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B227" s="14"/>
-      <c r="C227" s="22"/>
-      <c r="D227" s="18"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="12"/>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B228" s="14"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="18"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="15"/>
+      <c r="D228" s="12"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B229" s="14"/>
-      <c r="C229" s="22"/>
-      <c r="D229" s="18"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="15"/>
+      <c r="D229" s="12"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B230" s="14"/>
-      <c r="C230" s="22"/>
-      <c r="D230" s="18"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="15"/>
+      <c r="D230" s="12"/>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B231" s="14"/>
-      <c r="C231" s="22"/>
-      <c r="D231" s="18"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="15"/>
+      <c r="D231" s="12"/>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B232" s="14"/>
-      <c r="C232" s="22"/>
-      <c r="D232" s="18"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="12"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B233" s="14"/>
-      <c r="C233" s="22"/>
-      <c r="D233" s="18"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="15"/>
+      <c r="D233" s="12"/>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B234" s="14"/>
-      <c r="C234" s="22"/>
-      <c r="D234" s="18"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="12"/>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B235" s="14"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="18"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="12"/>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B236" s="14"/>
-      <c r="C236" s="22"/>
-      <c r="D236" s="18"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="15"/>
+      <c r="D236" s="12"/>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B237" s="14"/>
-      <c r="C237" s="22"/>
-      <c r="D237" s="18"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="15"/>
+      <c r="D237" s="12"/>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B238" s="14"/>
-      <c r="C238" s="22"/>
-      <c r="D238" s="18"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="15"/>
+      <c r="D238" s="12"/>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B239" s="14"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="18"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="15"/>
+      <c r="D239" s="12"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B240" s="14"/>
-      <c r="C240" s="22"/>
-      <c r="D240" s="18"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="15"/>
+      <c r="D240" s="12"/>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B241" s="14"/>
-      <c r="C241" s="22"/>
-      <c r="D241" s="18"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="12"/>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B242" s="14"/>
-      <c r="C242" s="22"/>
-      <c r="D242" s="18"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="15"/>
+      <c r="D242" s="12"/>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B243" s="14"/>
-      <c r="C243" s="22"/>
-      <c r="D243" s="18"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="12"/>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B244" s="14"/>
-      <c r="C244" s="22"/>
-      <c r="D244" s="18"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="15"/>
+      <c r="D244" s="12"/>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B245" s="14"/>
-      <c r="C245" s="22"/>
-      <c r="D245" s="18"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="15"/>
+      <c r="D245" s="12"/>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B246" s="14"/>
-      <c r="C246" s="22"/>
-      <c r="D246" s="18"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="15"/>
+      <c r="D246" s="12"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B247" s="14"/>
-      <c r="C247" s="22"/>
-      <c r="D247" s="18"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="12"/>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B248" s="14"/>
-      <c r="C248" s="22"/>
-      <c r="D248" s="18"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="15"/>
+      <c r="D248" s="12"/>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B249" s="14"/>
-      <c r="C249" s="22"/>
-      <c r="D249" s="18"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="15"/>
+      <c r="D249" s="12"/>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B250" s="14"/>
-      <c r="C250" s="22"/>
-      <c r="D250" s="18"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="12"/>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B251" s="14"/>
-      <c r="C251" s="22"/>
-      <c r="D251" s="18"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="12"/>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B252" s="14"/>
-      <c r="C252" s="22"/>
-      <c r="D252" s="18"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="15"/>
+      <c r="D252" s="12"/>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B253" s="14"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="18"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="12"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B254" s="14"/>
-      <c r="C254" s="22"/>
-      <c r="D254" s="18"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="15"/>
+      <c r="D254" s="12"/>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B255" s="14"/>
-      <c r="C255" s="22"/>
-      <c r="D255" s="18"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="12"/>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B256" s="14"/>
-      <c r="C256" s="22"/>
-      <c r="D256" s="18"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="15"/>
+      <c r="D256" s="12"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B257" s="14"/>
-      <c r="C257" s="22"/>
-      <c r="D257" s="18"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="12"/>
     </row>
     <row r="258" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B258" s="15"/>
-      <c r="C258" s="23"/>
-      <c r="D258" s="19"/>
+      <c r="B258" s="9"/>
+      <c r="C258" s="16"/>
+      <c r="D258" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
